--- a/data/trans_orig/IP13_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F031F8AA-4015-4440-90F8-63469E1206FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{625C4B81-675C-45A1-95C0-03ECDB9A3335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5BC7F61-B14A-41D8-974B-06BDE1FA0235}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AB96E35-12E0-47C2-8EC0-3BACE6172F89}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>13,62%</t>
+    <t>13,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,181 +107,187 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>86,38%</t>
+    <t>86,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -290,103 +296,103 @@
     <t>6,41%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -801,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140DDCE7-7DDD-4CCA-91C9-D2938238AEB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9B90A2-0CDD-4FE6-9167-2822120C653D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1116,7 +1122,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,13 +1137,13 @@
         <v>109648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>162</v>
@@ -1146,13 +1152,13 @@
         <v>100873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>307</v>
@@ -1161,13 +1167,13 @@
         <v>210520</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1235,13 +1241,13 @@
         <v>11361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1250,13 +1256,13 @@
         <v>8496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1265,13 +1271,13 @@
         <v>19857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,13 +1292,13 @@
         <v>238825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -1301,13 +1307,13 @@
         <v>183856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>593</v>
@@ -1316,13 +1322,13 @@
         <v>422681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,7 +1384,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1390,13 +1396,13 @@
         <v>8160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1405,13 +1411,13 @@
         <v>6604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -1420,13 +1426,13 @@
         <v>14765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1447,13 @@
         <v>165048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -1456,13 +1462,13 @@
         <v>161298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -1471,13 +1477,13 @@
         <v>326345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1551,13 @@
         <v>11219</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1560,13 +1566,13 @@
         <v>8196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -1575,13 +1581,13 @@
         <v>19414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1602,13 @@
         <v>163797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -1611,13 +1617,13 @@
         <v>163747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -1626,13 +1632,13 @@
         <v>327544</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1706,13 @@
         <v>35530</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -1715,13 +1721,13 @@
         <v>26975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -1730,13 +1736,13 @@
         <v>62505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1757,13 @@
         <v>689500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>900</v>
@@ -1766,13 +1772,13 @@
         <v>625904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1826</v>
@@ -1781,13 +1787,13 @@
         <v>1315404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,7 +1849,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{625C4B81-675C-45A1-95C0-03ECDB9A3335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{720B823B-5882-4D3C-94E6-57EEB59FE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AB96E35-12E0-47C2-8EC0-3BACE6172F89}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A815C069-F04B-4E81-8411-D3FAA2DBF310}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,334 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -807,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9B90A2-0CDD-4FE6-9167-2822120C653D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001839C-992E-4AAC-B94C-40F920FDB0C2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -925,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>516</v>
+        <v>3690</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -940,85 +901,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>657</v>
+        <v>4939</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>1174</v>
+        <v>8630</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7">
-        <v>12182</v>
+        <v>113590</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>163</v>
+      </c>
+      <c r="I5" s="7">
+        <v>134750</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>352</v>
+      </c>
+      <c r="N5" s="7">
+        <v>248339</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="7">
-        <v>16130</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7">
-        <v>28311</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1027,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139689</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>256969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>4274</v>
+        <v>8480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>3022</v>
+        <v>11263</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>7296</v>
+        <v>19743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="D8" s="7">
-        <v>109648</v>
+        <v>182032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="I8" s="7">
-        <v>100873</v>
+        <v>243772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>307</v>
+        <v>593</v>
       </c>
       <c r="N8" s="7">
-        <v>210520</v>
+        <v>425805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>113922</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>217816</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11361</v>
+        <v>6616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>8496</v>
+        <v>8505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>19857</v>
+        <v>15121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>238825</v>
+        <v>182969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="I11" s="7">
-        <v>183856</v>
+        <v>176781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>593</v>
+        <v>429</v>
       </c>
       <c r="N11" s="7">
-        <v>422681</v>
+        <v>359750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>8160</v>
+        <v>8071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>6604</v>
+        <v>11845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>14765</v>
+        <v>19916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>165048</v>
+        <v>159891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>161298</v>
+        <v>169393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>326345</v>
+        <v>329285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>11219</v>
+        <v>26858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>8196</v>
+        <v>36553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>19414</v>
+        <v>63411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>223</v>
+        <v>900</v>
       </c>
       <c r="D17" s="7">
-        <v>163797</v>
+        <v>638482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>229</v>
+        <v>926</v>
       </c>
       <c r="I17" s="7">
-        <v>163747</v>
+        <v>724695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>452</v>
+        <v>1826</v>
       </c>
       <c r="N17" s="7">
-        <v>327544</v>
+        <v>1363177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35530</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26975</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>92</v>
-      </c>
-      <c r="N19" s="7">
-        <v>62505</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>926</v>
-      </c>
-      <c r="D20" s="7">
-        <v>689500</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>900</v>
-      </c>
-      <c r="I20" s="7">
-        <v>625904</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1826</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1315404</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377909</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
